--- a/Template_Proyectos_Dashboard.xlsx
+++ b/Template_Proyectos_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02E92DB-F775-4D26-B442-FBC041D45944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415BDA2D-7AAD-4DC7-9004-1502178C757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4680" yWindow="-16320" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="193">
   <si>
     <t>Tipo</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Check Persons/Komatsu</t>
   </si>
   <si>
-    <t>Legacy 2</t>
-  </si>
-  <si>
     <t>Propuesta enviada ($5.700.000)</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
     <t>Armar presentación visual</t>
   </si>
   <si>
-    <t>Legacy Operaciones (2 roles)</t>
-  </si>
-  <si>
     <t>Armar Gantt y validar</t>
   </si>
   <si>
@@ -622,6 +616,9 @@
   </si>
   <si>
     <t>Legacy x2 ( Luis + Jaime)</t>
+  </si>
+  <si>
+    <t>Armar propuesta Técnica</t>
   </si>
 </sst>
 </file>
@@ -1119,11 +1116,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H122"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1216,7 +1214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1276,10 +1274,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="3">
         <v>45915</v>
@@ -1294,18 +1292,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>45915</v>
@@ -1320,18 +1318,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3">
         <v>45915</v>
@@ -1346,15 +1344,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -1372,18 +1370,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="3">
         <v>45915</v>
@@ -1398,18 +1396,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>45915</v>
@@ -1424,18 +1422,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>45923</v>
@@ -1450,18 +1448,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3">
         <v>45923</v>
@@ -1476,18 +1474,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="3">
         <v>45929</v>
@@ -1502,7 +1500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1510,10 +1508,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>45931</v>
@@ -1528,18 +1526,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3">
         <v>45932</v>
@@ -1554,76 +1552,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" s="3">
         <v>45940</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="H17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E18" s="3">
         <v>45933</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E19" s="3">
         <v>45933</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>13</v>
@@ -1632,111 +1630,111 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E20" s="3">
         <v>45950</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E21" s="3">
         <v>45950</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3">
         <v>45950</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3">
         <v>45950</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1744,10 +1742,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3">
         <v>45936</v>
@@ -1762,18 +1760,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3">
         <v>45936</v>
@@ -1788,18 +1786,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3">
         <v>45936</v>
@@ -1814,50 +1812,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3">
         <v>45940</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="3">
         <v>45940</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -1866,70 +1864,70 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="3">
         <v>45950</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="3">
         <v>45950</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E31" s="3">
         <v>45940</v>
@@ -1944,24 +1942,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="3">
         <v>45963</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>13</v>
@@ -1975,13 +1973,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="3">
         <v>45937</v>
@@ -1990,24 +1988,24 @@
         <v>12</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="3">
         <v>45943</v>
@@ -2016,24 +2014,24 @@
         <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="3">
         <v>45943</v>
@@ -2048,18 +2046,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="3">
         <v>45936</v>
@@ -2068,82 +2066,82 @@
         <v>12</v>
       </c>
       <c r="G36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E37" s="3">
         <v>45947</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="3">
         <v>45947</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="3">
         <v>45947</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>13</v>
@@ -2152,76 +2150,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="3">
         <v>45950</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="3">
         <v>45950</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E42" s="3">
         <v>45963</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>13</v>
@@ -2230,18 +2228,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="3">
         <v>45943</v>
@@ -2256,50 +2254,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="3">
         <v>45950</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="3">
         <v>45954</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>13</v>
@@ -2308,24 +2306,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="3">
         <v>45954</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -2334,18 +2332,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="3">
         <v>45943</v>
@@ -2354,30 +2352,30 @@
         <v>12</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="3">
         <v>45966</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -2386,50 +2384,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="3">
         <v>45963</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="3">
         <v>45961</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>13</v>
@@ -2438,24 +2436,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="3">
         <v>45961</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>13</v>
@@ -2464,24 +2462,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="3">
         <v>45961</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>13</v>
@@ -2490,50 +2488,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" s="3">
         <v>45971</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" s="3">
         <v>45971</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>13</v>
@@ -2542,24 +2540,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E55" s="3">
         <v>45968</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>13</v>
@@ -2568,76 +2566,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="3">
         <v>45971</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="3">
         <v>45965</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="3">
         <v>45978</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>13</v>
@@ -2646,50 +2644,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59" s="3">
         <v>45966</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E60" s="3">
         <v>45975</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>13</v>
@@ -2698,24 +2696,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61" s="3">
         <v>45982</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>13</v>
@@ -2724,24 +2722,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" s="3">
         <v>45989</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>13</v>
@@ -2750,24 +2748,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E63" s="3">
         <v>45943</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>13</v>
@@ -2776,50 +2774,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="3">
         <v>45968</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" s="3">
         <v>45978</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>13</v>
@@ -2828,241 +2826,241 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66" s="3">
         <v>45978</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" s="3">
         <v>45985</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="3">
         <v>45985</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E69" s="3">
         <v>45985</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E70" s="3">
         <v>45985</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E71" s="3">
         <v>45957</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" s="3">
         <v>45985</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E73" s="3">
         <v>45985</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E74" s="3">
         <v>45985</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -3070,16 +3068,16 @@
         <v>24</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" s="3">
         <v>45944</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>13</v>
@@ -3093,45 +3091,45 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" s="3">
         <v>45947</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E77" s="3">
         <v>45947</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>13</v>
@@ -3140,7 +3138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
@@ -3151,13 +3149,13 @@
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78" s="3">
         <v>45950</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>13</v>
@@ -3166,180 +3164,180 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E79" s="3">
         <v>45944</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80" s="3">
         <v>45947</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E81" s="3">
         <v>45950</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E82" s="3">
         <v>45957</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E83" s="3">
         <v>45960</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E84" s="3">
         <v>45975</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E85" s="13">
         <v>45947</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>13</v>
@@ -3348,44 +3346,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E86" s="3">
         <v>45950</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E87" s="13">
         <v>45946</v>
@@ -3394,30 +3392,30 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E88" s="13">
         <v>45945</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>13</v>
@@ -3426,856 +3424,856 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E89" s="13">
         <v>45945</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E90" s="13">
         <v>45950</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E91" s="13">
         <v>45954</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E92" s="13">
         <v>45957</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E93" s="13">
         <v>45957</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E94" s="13">
         <v>45957</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E95" s="13">
         <v>45964</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E96" s="13">
         <v>45964</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E97" s="13">
         <v>45971</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E98" s="13">
         <v>45971</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E99" s="13">
         <v>45971</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E100" s="13">
         <v>45971</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E101" s="13">
         <v>45978</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E102" s="13">
         <v>45978</v>
       </c>
       <c r="F102" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E103" s="13">
         <v>45978</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E104" s="13">
         <v>45978</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E105" s="13">
         <v>45985</v>
       </c>
       <c r="F105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E106" s="13">
         <v>45985</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E107" s="13">
         <v>45985</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E108" s="13">
         <v>45985</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E109" s="13">
         <v>45992</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E110" s="13">
         <v>46027</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E111" s="13">
         <v>46027</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E112" s="13">
         <v>46027</v>
       </c>
       <c r="F112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E113" s="13">
         <v>46041</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E114" s="13">
         <v>46041</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E115" s="13">
         <v>46048</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E116" s="13">
         <v>46048</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E117" s="13">
         <v>46048</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E118" s="13">
         <v>46055</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E119" s="13">
         <v>46055</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E120" s="13">
         <v>46062</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E121" s="13">
         <v>46174</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>13</v>
@@ -4284,34 +4282,65 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D122" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E122" s="13">
         <v>45950</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H122" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" s="3">
+        <v>45951</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" s="12" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H122" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Licitación modelo gestión instructores"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:H74">
       <sortCondition ref="E1:E122"/>
     </sortState>
@@ -4337,6 +4366,7 @@
     <hyperlink ref="H56" r:id="rId15" display="mailto:msuarez@schilling.cl" xr:uid="{AEE2429E-8C99-4585-916D-CE1A1FEC1B4F}"/>
     <hyperlink ref="H57" r:id="rId16" display="mailto:msuarez@schilling.cl" xr:uid="{2F2FB24F-8FD1-4DD9-ACDB-6BF1174D456D}"/>
     <hyperlink ref="H64" r:id="rId17" display="mailto:msuarez@schilling.cl" xr:uid="{D45F3DD8-EA67-4DCC-B92C-B884ED913682}"/>
+    <hyperlink ref="H123" r:id="rId18" display="Loreto.naranjo@gmail.com" xr:uid="{900F514B-C93B-4103-B7A9-A4E7C1DEF677}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4357,82 +4387,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Template_Proyectos_Dashboard.xlsx
+++ b/Template_Proyectos_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0A770F-E81A-4B3E-AD33-45C4C00975EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C141102-5F18-4948-9AC0-FD5C5DDCB8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="196">
   <si>
     <t>Tipo</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>loreto.naranjo@gmail.com</t>
+  </si>
+  <si>
+    <t>Esperando respuesta cliente</t>
   </si>
 </sst>
 </file>
@@ -1125,9 +1128,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1140,7 @@
     <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1601,7 +1604,7 @@
         <v>45933</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>13</v>
@@ -1627,7 +1630,7 @@
         <v>45933</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>13</v>
@@ -1844,7 +1847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>45940</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -2104,7 +2107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -3066,12 +3069,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>191</v>
@@ -3170,7 +3173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>8</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>2</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>2</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>2</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>2</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>2</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
@@ -4342,9 +4345,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H123" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Loreto Naranjo"/>
+        <filter val="Komatsu-Cummins"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Template_Proyectos_Dashboard.xlsx
+++ b/Template_Proyectos_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C141102-5F18-4948-9AC0-FD5C5DDCB8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68366538-1AA6-4DB0-BC96-7DBED0CBD699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="192">
   <si>
     <t>Tipo</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Propuesta enviada</t>
   </si>
   <si>
-    <t>Check Persons/Komatsu</t>
-  </si>
-  <si>
     <t>Propuesta enviada ($5.700.000)</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>Reunión de validación estrategia bajada a equipos</t>
   </si>
   <si>
-    <t>Iniciado atrasado</t>
-  </si>
-  <si>
     <t>Validación manual</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>Desarrollar evaluación módulo 2</t>
   </si>
   <si>
-    <t>Atrasado</t>
-  </si>
-  <si>
     <t>Osvaldo Muñoz</t>
   </si>
   <si>
@@ -625,9 +616,6 @@
   </si>
   <si>
     <t>loreto.naranjo@gmail.com</t>
-  </si>
-  <si>
-    <t>Esperando respuesta cliente</t>
   </si>
 </sst>
 </file>
@@ -1125,12 +1113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1275,18 +1262,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="3">
         <v>45915</v>
@@ -1301,18 +1288,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3">
         <v>45915</v>
@@ -1327,18 +1314,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3">
         <v>45915</v>
@@ -1353,15 +1340,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -1379,18 +1366,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E10" s="3">
         <v>45915</v>
@@ -1405,18 +1392,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>45915</v>
@@ -1431,18 +1418,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="3">
         <v>45923</v>
@@ -1457,18 +1444,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3">
         <v>45923</v>
@@ -1483,18 +1470,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="3">
         <v>45929</v>
@@ -1509,7 +1496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1517,10 +1504,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="3">
         <v>45931</v>
@@ -1535,18 +1522,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3">
         <v>45932</v>
@@ -1561,44 +1548,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E17" s="3">
         <v>45940</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E18" s="3">
         <v>45933</v>
@@ -1613,18 +1600,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3">
         <v>45933</v>
@@ -1639,111 +1626,111 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E20" s="3">
         <v>45950</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3">
         <v>45950</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="3">
         <v>45950</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="3">
         <v>45950</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1751,10 +1738,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3">
         <v>45936</v>
@@ -1769,18 +1756,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3">
         <v>45936</v>
@@ -1795,18 +1782,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="3">
         <v>45936</v>
@@ -1821,24 +1808,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3">
         <v>45940</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>13</v>
@@ -1852,19 +1839,19 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E28" s="3">
         <v>45940</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -1873,70 +1860,70 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3">
         <v>45950</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="3">
         <v>45950</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E31" s="3">
         <v>45940</v>
@@ -1951,24 +1938,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E32" s="3">
         <v>45963</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>13</v>
@@ -1982,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="3">
         <v>45937</v>
@@ -1997,24 +1984,24 @@
         <v>12</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E34" s="3">
         <v>45943</v>
@@ -2023,24 +2010,24 @@
         <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E35" s="3">
         <v>45943</v>
@@ -2055,18 +2042,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E36" s="3">
         <v>45936</v>
@@ -2075,30 +2062,30 @@
         <v>12</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E37" s="3">
         <v>45947</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>13</v>
@@ -2112,19 +2099,19 @@
         <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E38" s="3">
         <v>45947</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>13</v>
@@ -2138,19 +2125,19 @@
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E39" s="3">
         <v>45947</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>13</v>
@@ -2159,76 +2146,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3">
         <v>45950</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E41" s="3">
         <v>45950</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E42" s="3">
         <v>45963</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>13</v>
@@ -2237,18 +2224,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E43" s="3">
         <v>45943</v>
@@ -2263,50 +2250,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E44" s="3">
         <v>45950</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E45" s="3">
         <v>45954</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>13</v>
@@ -2315,24 +2302,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E46" s="3">
         <v>45954</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -2341,18 +2328,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E47" s="3">
         <v>45943</v>
@@ -2361,30 +2348,30 @@
         <v>12</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E48" s="3">
         <v>45966</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -2393,50 +2380,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E49" s="3">
         <v>45963</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E50" s="3">
         <v>45961</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>13</v>
@@ -2445,24 +2432,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E51" s="3">
         <v>45961</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>13</v>
@@ -2471,24 +2458,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E52" s="3">
         <v>45961</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>13</v>
@@ -2497,50 +2484,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E53" s="3">
         <v>45971</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E54" s="3">
         <v>45971</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>13</v>
@@ -2549,24 +2536,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E55" s="3">
         <v>45968</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>13</v>
@@ -2575,76 +2562,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E56" s="3">
         <v>45971</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E57" s="3">
         <v>45965</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E58" s="3">
         <v>45978</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>13</v>
@@ -2653,50 +2640,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E59" s="3">
         <v>45966</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E60" s="3">
         <v>45975</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>13</v>
@@ -2705,24 +2692,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E61" s="3">
         <v>45982</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>13</v>
@@ -2731,24 +2718,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E62" s="3">
         <v>45989</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>13</v>
@@ -2757,24 +2744,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E63" s="3">
         <v>45943</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>13</v>
@@ -2783,50 +2770,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E64" s="3">
         <v>45968</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E65" s="3">
         <v>45978</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>13</v>
@@ -2835,235 +2822,235 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E66" s="3">
         <v>45978</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E67" s="3">
         <v>45985</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E68" s="3">
         <v>45985</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E69" s="3">
         <v>45985</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E70" s="3">
         <v>45985</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E71" s="3">
         <v>45957</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E72" s="3">
         <v>45985</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E73" s="3">
         <v>45985</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E74" s="3">
         <v>45985</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>14</v>
@@ -3074,13 +3061,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E75" s="3">
         <v>45944</v>
@@ -3100,45 +3087,45 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E76" s="3">
         <v>45947</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E77" s="3">
         <v>45947</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>13</v>
@@ -3147,7 +3134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
@@ -3158,13 +3145,13 @@
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E78" s="3">
         <v>45950</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>13</v>
@@ -3173,180 +3160,180 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E79" s="3">
         <v>45944</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E80" s="3">
         <v>45947</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E81" s="3">
         <v>45950</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E82" s="3">
         <v>45957</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E83" s="3">
         <v>45960</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E84" s="3">
         <v>45975</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E85" s="13">
         <v>45947</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>13</v>
@@ -3355,44 +3342,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E86" s="3">
         <v>45950</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E87" s="13">
         <v>45946</v>
@@ -3401,10 +3388,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3412,13 +3399,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E88" s="13">
         <v>45945</v>
@@ -3438,19 +3425,19 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E89" s="13">
         <v>45945</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>13</v>
@@ -3464,19 +3451,19 @@
         <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E90" s="13">
         <v>45950</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>13</v>
@@ -3490,19 +3477,19 @@
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E91" s="13">
         <v>45954</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>13</v>
@@ -3516,19 +3503,19 @@
         <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E92" s="13">
         <v>45957</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>13</v>
@@ -3542,19 +3529,19 @@
         <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E93" s="13">
         <v>45957</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>13</v>
@@ -3568,19 +3555,19 @@
         <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E94" s="13">
         <v>45957</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>13</v>
@@ -3594,19 +3581,19 @@
         <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E95" s="13">
         <v>45964</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>13</v>
@@ -3620,19 +3607,19 @@
         <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E96" s="13">
         <v>45964</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>13</v>
@@ -3646,19 +3633,19 @@
         <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E97" s="13">
         <v>45971</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>13</v>
@@ -3672,19 +3659,19 @@
         <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E98" s="13">
         <v>45971</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>13</v>
@@ -3698,19 +3685,19 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E99" s="13">
         <v>45971</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>13</v>
@@ -3724,19 +3711,19 @@
         <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E100" s="13">
         <v>45971</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>13</v>
@@ -3750,19 +3737,19 @@
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E101" s="13">
         <v>45978</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>13</v>
@@ -3776,19 +3763,19 @@
         <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E102" s="13">
         <v>45978</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>13</v>
@@ -3802,19 +3789,19 @@
         <v>2</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E103" s="13">
         <v>45978</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>13</v>
@@ -3828,19 +3815,19 @@
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E104" s="13">
         <v>45978</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>13</v>
@@ -3854,19 +3841,19 @@
         <v>2</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E105" s="13">
         <v>45985</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>13</v>
@@ -3880,19 +3867,19 @@
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E106" s="13">
         <v>45985</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>13</v>
@@ -3906,19 +3893,19 @@
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E107" s="13">
         <v>45985</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>13</v>
@@ -3932,19 +3919,19 @@
         <v>2</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E108" s="13">
         <v>45985</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>13</v>
@@ -3958,19 +3945,19 @@
         <v>2</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E109" s="13">
         <v>45992</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>13</v>
@@ -3984,19 +3971,19 @@
         <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E110" s="13">
         <v>46027</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>13</v>
@@ -4010,19 +3997,19 @@
         <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E111" s="13">
         <v>46027</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>13</v>
@@ -4036,19 +4023,19 @@
         <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E112" s="13">
         <v>46027</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>13</v>
@@ -4062,19 +4049,19 @@
         <v>2</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E113" s="13">
         <v>46041</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>13</v>
@@ -4088,19 +4075,19 @@
         <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E114" s="13">
         <v>46041</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>13</v>
@@ -4114,19 +4101,19 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E115" s="13">
         <v>46048</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>13</v>
@@ -4140,19 +4127,19 @@
         <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E116" s="13">
         <v>46048</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>13</v>
@@ -4166,19 +4153,19 @@
         <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E117" s="13">
         <v>46048</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>13</v>
@@ -4192,19 +4179,19 @@
         <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E118" s="13">
         <v>46055</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>13</v>
@@ -4218,19 +4205,19 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E119" s="13">
         <v>46055</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>13</v>
@@ -4244,19 +4231,19 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E120" s="13">
         <v>46062</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>13</v>
@@ -4270,19 +4257,19 @@
         <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E121" s="13">
         <v>46174</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>13</v>
@@ -4291,30 +4278,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E122" s="13">
         <v>45950</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -4322,13 +4309,13 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E123" s="3">
         <v>45951</v>
@@ -4337,20 +4324,14 @@
         <v>12</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H123" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Komatsu-Cummins"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H123" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576" xr:uid="{D28A5FAF-77CC-4C71-B111-D56CF31E9B6B}"/>
   </dataValidations>
@@ -4387,82 +4368,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Template_Proyectos_Dashboard.xlsx
+++ b/Template_Proyectos_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68366538-1AA6-4DB0-BC96-7DBED0CBD699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B2051-AE34-45DE-B0FC-26438FEBA81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -1113,11 +1113,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>8</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>2</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>2</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>2</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
@@ -4018,7 +4019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>2</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>2</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>8</v>
       </c>
@@ -4331,7 +4332,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H123" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H123" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Rafael Vega"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576" xr:uid="{D28A5FAF-77CC-4C71-B111-D56CF31E9B6B}"/>
   </dataValidations>

--- a/Template_Proyectos_Dashboard.xlsx
+++ b/Template_Proyectos_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B2051-AE34-45DE-B0FC-26438FEBA81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53738F61-9CD8-407F-A5AC-634885F7A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Enlaces" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Proyectos!$A$1:$H$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Proyectos!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1113,12 +1113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>8</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>2</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>2</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +3784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>2</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>2</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>8</v>
       </c>
@@ -4332,13 +4331,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H123" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Rafael Vega"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576" xr:uid="{D28A5FAF-77CC-4C71-B111-D56CF31E9B6B}"/>
   </dataValidations>

--- a/Template_Proyectos_Dashboard.xlsx
+++ b/Template_Proyectos_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53738F61-9CD8-407F-A5AC-634885F7A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F8723-0E15-433B-9553-4F3DAE94AF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Template_Proyectos_Dashboard.xlsx
+++ b/Template_Proyectos_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F8723-0E15-433B-9553-4F3DAE94AF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F4F319-381A-429E-9A95-8C6C8076C25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="193">
   <si>
     <t>Tipo</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>loreto.naranjo@gmail.com</t>
+  </si>
+  <si>
+    <t>Prueba Actualizacion</t>
   </si>
 </sst>
 </file>
@@ -1113,11 +1116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4330,10 +4333,36 @@
         <v>191</v>
       </c>
     </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" s="3">
+        <v>45951</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576" xr:uid="{D28A5FAF-77CC-4C71-B111-D56CF31E9B6B}"/>
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 D1:D123 D125:D1048576" xr:uid="{D28A5FAF-77CC-4C71-B111-D56CF31E9B6B}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H85" r:id="rId1" xr:uid="{EDABE694-FAAC-4D72-AD6D-FEB841DAC71C}"/>
@@ -4348,6 +4377,7 @@
     <hyperlink ref="H79:H84" r:id="rId10" display="loreto.naranjo@gmail.com" xr:uid="{B643CC4B-B1B5-4DB8-BC36-7BD14295B246}"/>
     <hyperlink ref="H87" r:id="rId11" xr:uid="{F979BFF5-43C8-4EC4-96D3-F8A82B8544CD}"/>
     <hyperlink ref="H122:H123" r:id="rId12" display="loreto.naranjo@gmail.com" xr:uid="{05F4E1C8-B6F8-4427-BAFC-66EE9B25BA68}"/>
+    <hyperlink ref="H124" r:id="rId13" xr:uid="{BC3ACA05-338F-409B-82E0-D7E7C8B4A17E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4358,7 +4388,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Template_Proyectos_Dashboard.xlsx
+++ b/Template_Proyectos_Dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dashboard-proyectos(test)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F4F319-381A-429E-9A95-8C6C8076C25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84122219-12A8-4D6F-A371-5AEBFE5BE9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="194">
   <si>
     <t>Tipo</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>Prueba Actualizacion</t>
+  </si>
+  <si>
+    <t>Prueba Actualizacion 2</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1123,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4344,7 +4347,7 @@
         <v>192</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E124" s="3">
         <v>45951</v>
